--- a/application2/table.xlsx
+++ b/application2/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\private\git\test\application2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F38BAE-3A14-4482-9B3A-8C13847C82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E8996E-3488-49A2-A4DA-0562D280BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E230D6F9-5211-4365-9B47-DFA1AD6BC3F5}"/>
   </bookViews>
@@ -1793,6 +1793,62 @@
               </a:solidFill>
             </a:rPr>
             <a:t>削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>admin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フラグ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>smallint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>→ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1:admin</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -2444,7 +2500,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
